--- a/FirewallUpgrade/Excel/excel.xlsx
+++ b/FirewallUpgrade/Excel/excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7935"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
   <si>
     <t>baseURL</t>
   </si>
@@ -1040,8 +1040,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1066,6 +1066,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1073,7 +1080,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,7 +1110,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,20 +1133,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1132,27 +1164,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1171,39 +1187,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,7 +1218,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,25 +1308,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,13 +1350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,7 +1368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,43 +1386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,55 +1398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,15 +1409,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1439,6 +1430,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1446,16 +1446,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1484,6 +1484,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1494,35 +1509,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1532,130 +1532,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1991,10 +1991,10 @@
   <dimension ref="A1:A339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="45.5" customWidth="1"/>
   </cols>
@@ -4049,7 +4049,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -4065,7 +4065,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
